--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.276772</v>
+        <v>2.058859333333333</v>
       </c>
       <c r="H2">
-        <v>12.830316</v>
+        <v>6.176577999999999</v>
       </c>
       <c r="I2">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="J2">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>145.7128139375026</v>
+        <v>22.94978792432933</v>
       </c>
       <c r="R2">
-        <v>1311.415325437524</v>
+        <v>206.548091318964</v>
       </c>
       <c r="S2">
-        <v>0.03173043359670333</v>
+        <v>0.007916286975535662</v>
       </c>
       <c r="T2">
-        <v>0.03173043359670333</v>
+        <v>0.007916286975535662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.276772</v>
+        <v>2.058859333333333</v>
       </c>
       <c r="H3">
-        <v>12.830316</v>
+        <v>6.176577999999999</v>
       </c>
       <c r="I3">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="J3">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>118.404558375684</v>
+        <v>57.00054389642199</v>
       </c>
       <c r="R3">
-        <v>1065.641025381156</v>
+        <v>513.0048950677979</v>
       </c>
       <c r="S3">
-        <v>0.02578378576024235</v>
+        <v>0.01966173564363692</v>
       </c>
       <c r="T3">
-        <v>0.02578378576024236</v>
+        <v>0.01966173564363692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.276772</v>
+        <v>2.058859333333333</v>
       </c>
       <c r="H4">
-        <v>12.830316</v>
+        <v>6.176577999999999</v>
       </c>
       <c r="I4">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="J4">
-        <v>0.06135676581847978</v>
+        <v>0.03050820259458848</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>17.64578022198534</v>
+        <v>8.494766450954888</v>
       </c>
       <c r="R4">
-        <v>158.812021997868</v>
+        <v>76.452898058594</v>
       </c>
       <c r="S4">
-        <v>0.003842546461534095</v>
+        <v>0.002930179975415902</v>
       </c>
       <c r="T4">
-        <v>0.003842546461534095</v>
+        <v>0.002930179975415902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>109.335934</v>
       </c>
       <c r="I5">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="J5">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>1241.718957477358</v>
+        <v>406.2502728547213</v>
       </c>
       <c r="R5">
-        <v>11175.47061729622</v>
+        <v>3656.252455692492</v>
       </c>
       <c r="S5">
-        <v>0.2703968159101098</v>
+        <v>0.1401317412784598</v>
       </c>
       <c r="T5">
-        <v>0.2703968159101099</v>
+        <v>0.1401317412784598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>109.335934</v>
       </c>
       <c r="I6">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="J6">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>1009.006557583066</v>
@@ -818,10 +818,10 @@
         <v>9081.059018247592</v>
       </c>
       <c r="S6">
-        <v>0.2197213457682567</v>
+        <v>0.3480461560848311</v>
       </c>
       <c r="T6">
-        <v>0.2197213457682568</v>
+        <v>0.3480461560848311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>109.335934</v>
       </c>
       <c r="I7">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="J7">
-        <v>0.5228631389891535</v>
+        <v>0.540047065760451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>150.3718117098202</v>
@@ -880,10 +880,10 @@
         <v>1353.346305388382</v>
       </c>
       <c r="S7">
-        <v>0.03274497731078683</v>
+        <v>0.05186916839716015</v>
       </c>
       <c r="T7">
-        <v>0.03274497731078683</v>
+        <v>0.05186916839716015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>86.943794</v>
       </c>
       <c r="I8">
-        <v>0.4157800951923667</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="J8">
-        <v>0.4157800951923668</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>987.4133168771959</v>
+        <v>323.0496941245747</v>
       </c>
       <c r="R8">
-        <v>8886.719851894764</v>
+        <v>2907.447247121172</v>
       </c>
       <c r="S8">
-        <v>0.215019200007424</v>
+        <v>0.1114325803132181</v>
       </c>
       <c r="T8">
-        <v>0.2150192000074241</v>
+        <v>0.1114325803132181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>86.943794</v>
       </c>
       <c r="I9">
-        <v>0.4157800951923667</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="J9">
-        <v>0.4157800951923668</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>802.3607159852058</v>
@@ -1004,10 +1004,10 @@
         <v>7221.246443866853</v>
       </c>
       <c r="S9">
-        <v>0.1747221313706259</v>
+        <v>0.2767658553786297</v>
       </c>
       <c r="T9">
-        <v>0.174722131370626</v>
+        <v>0.2767658553786297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>86.943794</v>
       </c>
       <c r="I10">
-        <v>0.4157800951923667</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="J10">
-        <v>0.4157800951923668</v>
+        <v>0.4294447316449605</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>119.5754711411291</v>
@@ -1066,10 +1066,10 @@
         <v>1076.179240270162</v>
       </c>
       <c r="S10">
-        <v>0.02603876381431675</v>
+        <v>0.04124629595311275</v>
       </c>
       <c r="T10">
-        <v>0.02603876381431675</v>
+        <v>0.04124629595311275</v>
       </c>
     </row>
   </sheetData>
